--- a/PubChem.xlsx
+++ b/PubChem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex_\Documents\GitHub\RTI_prediction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anikolopoulos\Desktop\Figure for report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87EB9E5-C741-42DE-A97A-EEE0983A07EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F77DCE-D7F5-4BC8-BFC5-C6F7CDA6BBDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -20,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="174">
   <si>
     <t>SMILES</t>
   </si>
@@ -175,9 +165,6 @@
     <t>heptan-1-amine</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
     <t>1-hydroxydecan-3-one</t>
   </si>
   <si>
@@ -500,6 +487,66 @@
   </si>
   <si>
     <t>Group C (Maybe)</t>
+  </si>
+  <si>
+    <t>N,2,2-triethyl-3-methylbutanamide</t>
+  </si>
+  <si>
+    <t>2-[4-(Dimethylamino)styryl]-1-methylquinolinium</t>
+  </si>
+  <si>
+    <t>(1-propylindol-3-yl)-(4-propylnaphthalen-1-yl)methanone </t>
+  </si>
+  <si>
+    <t>2-phenylbut-2-enal</t>
+  </si>
+  <si>
+    <t>ethyl docosanoate</t>
+  </si>
+  <si>
+    <t>cyclohexene</t>
+  </si>
+  <si>
+    <t>2-iminoethanamine</t>
+  </si>
+  <si>
+    <t>3-methoxy-2-phenylchromen-4-one</t>
+  </si>
+  <si>
+    <t>6-[(2-amino-1,6-dimethylpyrimidin-4-ylidene)amino]-1,2-dimethylquinolin-1-ium-4-amine  </t>
+  </si>
+  <si>
+    <t>ethyl 2-formamidoacetate</t>
+  </si>
+  <si>
+    <t>1-isocyanatooctane</t>
+  </si>
+  <si>
+    <t>hexane-2,5-dione</t>
+  </si>
+  <si>
+    <t>oct-3-en-1-ol</t>
+  </si>
+  <si>
+    <t>morpholine</t>
+  </si>
+  <si>
+    <t>3-aminopropanoic acid </t>
+  </si>
+  <si>
+    <t>1-(dimethylamino)propan-2-yl 2-methylprop-2-enoate</t>
+  </si>
+  <si>
+    <t>2-(1,3-dioxoisoindol-2-yl)pentanedioic acid</t>
+  </si>
+  <si>
+    <t>5-amino-4-hydroxy-4-(2-methylphenyl)-2-propan-2-ylpyrazol-3-one</t>
+  </si>
+  <si>
+    <t>1-[(2-dodecylphenyl)methyl]pyridin-1-ium;chloride</t>
+  </si>
+  <si>
+    <t>2-(4-benzylpiperidin-1-yl)-1-(4-phenylmethoxyphenyl)propan-1-one</t>
   </si>
 </sst>
 </file>
@@ -577,7 +624,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="66">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -642,6 +689,23 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
@@ -657,6 +721,21 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
@@ -676,322 +755,42 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1038,6 +837,40 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1053,6 +886,40 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1065,6 +932,15 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1111,6 +987,40 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1126,6 +1036,40 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1138,6 +1082,15 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1184,6 +1137,40 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1199,6 +1186,40 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="4" tint="0.79998168889431442"/>
@@ -1211,6 +1232,15 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1501,11 +1531,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54C0395D-FBEB-4A33-90A6-7E910A1D05CB}" name="Table1" displayName="Table1" ref="B2:D23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{54C0395D-FBEB-4A33-90A6-7E910A1D05CB}" name="Table1" displayName="Table1" ref="B2:D23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1D17DEFD-A7E4-4B65-BA84-63DAD639553F}" name="Group A" headerRowDxfId="63" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{2D16FDE9-6FF9-4C79-B4B3-3AEE29689599}" name="Column1" headerRowDxfId="60" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="3" xr3:uid="{D1407DC0-BAD3-4D7D-8349-BD5AE5F9FF77}" name="Column2" totalsRowFunction="custom" headerRowDxfId="57" dataDxfId="56" totalsRowDxfId="55">
+    <tableColumn id="1" xr3:uid="{1D17DEFD-A7E4-4B65-BA84-63DAD639553F}" name="Group A" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{2D16FDE9-6FF9-4C79-B4B3-3AEE29689599}" name="Column1" headerRowDxfId="59" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{D1407DC0-BAD3-4D7D-8349-BD5AE5F9FF77}" name="Column2" totalsRowFunction="custom" headerRowDxfId="56" dataDxfId="55" totalsRowDxfId="54">
       <totalsRowFormula>COUNTIF(D3:D22,"Y")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1514,11 +1544,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB106D24-CEC5-4330-9506-41E27ED2FF52}" name="Table13" displayName="Table13" ref="E2:G23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="54" dataDxfId="53" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB106D24-CEC5-4330-9506-41E27ED2FF52}" name="Table13" displayName="Table13" ref="E2:G23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A5957437-E056-4A47-8A77-0EB2EB883DF6}" name="Group A" headerRowDxfId="51" totalsRowDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{B9CB71DF-2FAD-4FEA-B411-588DC22A67D5}" name="Column1" headerRowDxfId="50" dataDxfId="24" totalsRowDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{D5A70B3B-F4BE-4BDA-A856-B7323081B6FD}" name="Column2" totalsRowFunction="custom" headerRowDxfId="49" dataDxfId="23" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{A5957437-E056-4A47-8A77-0EB2EB883DF6}" name="Group A" headerRowDxfId="50" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{B9CB71DF-2FAD-4FEA-B411-588DC22A67D5}" name="Column1" headerRowDxfId="49" totalsRowDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{D5A70B3B-F4BE-4BDA-A856-B7323081B6FD}" name="Column2" totalsRowFunction="custom" headerRowDxfId="48" dataDxfId="3" totalsRowDxfId="0">
       <totalsRowFormula>COUNTIF(G3:G22,"Y")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1527,11 +1557,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C908D63E-F908-4D43-A458-108A68463B86}" name="Table14" displayName="Table14" ref="H2:J23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C908D63E-F908-4D43-A458-108A68463B86}" name="Table14" displayName="Table14" ref="H2:J23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8E8B2DF1-3AC3-4484-A64C-15ED5D73502C}" name="Group A" headerRowDxfId="45" totalsRowDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{051654C9-F5CB-4421-8728-A7679F9CF596}" name="Column1" headerRowDxfId="44" dataDxfId="19" totalsRowDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{E7A4092B-498B-4F59-AA62-81CD6EBC9BE9}" name="Column2" totalsRowFunction="custom" headerRowDxfId="43" dataDxfId="18" totalsRowDxfId="15">
+    <tableColumn id="1" xr3:uid="{8E8B2DF1-3AC3-4484-A64C-15ED5D73502C}" name="Group A" headerRowDxfId="44" totalsRowDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{051654C9-F5CB-4421-8728-A7679F9CF596}" name="Column1" headerRowDxfId="42" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{E7A4092B-498B-4F59-AA62-81CD6EBC9BE9}" name="Column2" totalsRowFunction="custom" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
       <totalsRowFormula>COUNTIF(J3:J22,"Y")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1540,11 +1570,11 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C67C7100-C61A-4B4D-BB9E-CA28596D4C65}" name="Table15" displayName="Table15" ref="K2:M23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C67C7100-C61A-4B4D-BB9E-CA28596D4C65}" name="Table15" displayName="Table15" ref="K2:M23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{E2084091-54E3-4006-A7A4-AB36CE9C4F11}" name="Group A" headerRowDxfId="39" totalsRowDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{A0CAC618-B2C8-4917-A7BC-7658AD58AF2E}" name="Column1" headerRowDxfId="38" dataDxfId="14" totalsRowDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{F456A30F-5AFB-4198-9BD6-2264FF8648DE}" name="Column2" totalsRowFunction="custom" headerRowDxfId="37" dataDxfId="13" totalsRowDxfId="10">
+    <tableColumn id="1" xr3:uid="{E2084091-54E3-4006-A7A4-AB36CE9C4F11}" name="Group A" headerRowDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{A0CAC618-B2C8-4917-A7BC-7658AD58AF2E}" name="Column1" headerRowDxfId="31" dataDxfId="30" totalsRowDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{F456A30F-5AFB-4198-9BD6-2264FF8648DE}" name="Column2" totalsRowFunction="custom" headerRowDxfId="28" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>COUNTIF(M3:M22,"Y")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1553,11 +1583,11 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B77F1839-8B77-444E-9DCE-565724653D5F}" name="Table156" displayName="Table156" ref="N2:P23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B77F1839-8B77-444E-9DCE-565724653D5F}" name="Table156" displayName="Table156" ref="N2:P23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{98718E2A-BB5C-45BE-99DC-57C2D25F5737}" name="Group A" headerRowDxfId="33" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B6B4BA49-3F6D-4F2B-9552-42BAECF99EAC}" name="Column1" headerRowDxfId="32" dataDxfId="9" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{20FFE792-898A-4126-A5C1-782305A206FD}" name="Column2" totalsRowFunction="custom" headerRowDxfId="31" dataDxfId="8" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{98718E2A-BB5C-45BE-99DC-57C2D25F5737}" name="Group A" headerRowDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{B6B4BA49-3F6D-4F2B-9552-42BAECF99EAC}" name="Column1" headerRowDxfId="20" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{20FFE792-898A-4126-A5C1-782305A206FD}" name="Column2" totalsRowFunction="custom" headerRowDxfId="17" dataDxfId="16" totalsRowDxfId="15">
       <totalsRowFormula>COUNTIF(P3:P22,"Y")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1566,11 +1596,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3830E39B-12E5-4BD3-8350-55B8ECEE812A}" name="Table157" displayName="Table157" ref="Q2:S23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3830E39B-12E5-4BD3-8350-55B8ECEE812A}" name="Table157" displayName="Table157" ref="Q2:S23" headerRowCount="0" totalsRowCount="1" headerRowDxfId="14" dataDxfId="13" tableBorderDxfId="12">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8861B9BB-493B-4971-BE41-44E52FAEFAE6}" name="Group A" headerRowDxfId="27" totalsRowDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D4821525-4ED3-41D0-BC62-F97AE60215D1}" name="Column1" headerRowDxfId="26" dataDxfId="4" totalsRowDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{E22E49DE-0C67-49DF-96F0-B42BD1468FCD}" name="Column2" totalsRowFunction="custom" headerRowDxfId="25" dataDxfId="3" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{8861B9BB-493B-4971-BE41-44E52FAEFAE6}" name="Group A" headerRowDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{D4821525-4ED3-41D0-BC62-F97AE60215D1}" name="Column1" headerRowDxfId="9" dataDxfId="8" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{E22E49DE-0C67-49DF-96F0-B42BD1468FCD}" name="Column2" totalsRowFunction="custom" headerRowDxfId="6" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>COUNTIF(S3:S22,"Y")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -1843,64 +1873,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:J1"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
     <col min="2" max="2" width="54" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="61.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="97.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
-    <col min="11" max="11" width="51.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="63.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="1"/>
-    <col min="17" max="17" width="65.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="61.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="61.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="77.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.90625" style="1"/>
+    <col min="8" max="8" width="97.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.90625" style="1"/>
+    <col min="11" max="11" width="51.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="63.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="8.90625" style="1"/>
+    <col min="17" max="17" width="65.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B1" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
       <c r="H1" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
       <c r="K1" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
       <c r="N1" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O1" s="7"/>
       <c r="P1" s="7"/>
       <c r="Q1" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1939,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>0</v>
@@ -1956,7 +1987,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1970,32 +2001,36 @@
         <v>24</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="F3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R3" s="3"/>
       <c r="S3" s="3"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2009,32 +2044,36 @@
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I4"/>
       <c r="J4" s="3"/>
       <c r="K4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="O4"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R4"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2048,32 +2087,36 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="F5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I5"/>
       <c r="J5" s="3"/>
       <c r="K5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L5"/>
       <c r="M5" s="3"/>
       <c r="N5" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O5"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R5"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2087,32 +2130,36 @@
         <v>24</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6"/>
-      <c r="G6" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="F6" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I6"/>
       <c r="J6" s="3"/>
       <c r="K6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L6"/>
       <c r="M6" s="3"/>
       <c r="N6" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O6"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R6"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2126,32 +2173,36 @@
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7"/>
-      <c r="G7" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I7"/>
       <c r="J7" s="3"/>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L7"/>
       <c r="M7" s="3"/>
       <c r="N7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O7"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R7"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2165,32 +2216,36 @@
         <v>24</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8"/>
-      <c r="G8" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8"/>
       <c r="J8" s="3"/>
       <c r="K8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8"/>
       <c r="M8" s="3"/>
       <c r="N8" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O8"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="R8"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2204,32 +2259,36 @@
         <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9"/>
-      <c r="G9" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>160</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H9" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I9"/>
       <c r="J9" s="3"/>
       <c r="K9" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L9"/>
       <c r="M9" s="3"/>
       <c r="N9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O9"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="R9"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2243,32 +2302,36 @@
         <v>24</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10"/>
-      <c r="G10" s="3"/>
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10"/>
       <c r="J10" s="3"/>
       <c r="K10" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L10"/>
       <c r="M10" s="3"/>
       <c r="N10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O10"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="R10"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2282,32 +2345,36 @@
         <v>26</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11"/>
-      <c r="G11" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L11"/>
       <c r="M11" s="3"/>
       <c r="N11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O11"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R11"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2321,32 +2388,36 @@
         <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12"/>
-      <c r="G12" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12"/>
       <c r="J12" s="3"/>
       <c r="K12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L12"/>
       <c r="M12" s="3"/>
       <c r="N12" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O12"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R12"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2360,32 +2431,36 @@
         <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13"/>
-      <c r="G13" s="3"/>
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I13"/>
       <c r="J13" s="3"/>
       <c r="K13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L13"/>
       <c r="M13" s="3"/>
       <c r="N13" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O13"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R13"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2399,32 +2474,36 @@
         <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14"/>
-      <c r="G14" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>165</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I14"/>
       <c r="J14" s="3"/>
       <c r="K14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L14"/>
       <c r="M14" s="3"/>
       <c r="N14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O14"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="R14"/>
       <c r="S14" s="3"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2438,32 +2517,36 @@
         <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15"/>
-      <c r="G15" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15"/>
       <c r="J15" s="3"/>
       <c r="K15" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L15"/>
       <c r="M15" s="3"/>
       <c r="N15" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O15"/>
       <c r="P15" s="3"/>
       <c r="Q15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="R15"/>
       <c r="S15" s="3"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2477,34 +2560,36 @@
         <v>24</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16"/>
+        <v>61</v>
+      </c>
+      <c r="F16" t="s">
+        <v>167</v>
+      </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16"/>
       <c r="J16" s="3"/>
       <c r="K16" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L16"/>
       <c r="M16" s="3"/>
       <c r="N16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O16"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="R16"/>
       <c r="S16" s="3"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2518,34 +2603,36 @@
         <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17"/>
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>168</v>
+      </c>
       <c r="G17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17"/>
       <c r="J17" s="3"/>
       <c r="K17" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L17"/>
       <c r="M17" s="3"/>
       <c r="N17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O17"/>
       <c r="P17" s="3"/>
       <c r="Q17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R17"/>
       <c r="S17" s="3"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2559,32 +2646,36 @@
         <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18"/>
-      <c r="G18" s="3"/>
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L18"/>
       <c r="M18" s="3"/>
       <c r="N18" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O18"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="R18"/>
       <c r="S18" s="3"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2598,32 +2689,36 @@
         <v>26</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19"/>
-      <c r="G19" s="3"/>
+        <v>64</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19"/>
       <c r="J19" s="3"/>
       <c r="K19" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L19"/>
       <c r="M19" s="3"/>
       <c r="N19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O19"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="R19"/>
       <c r="S19" s="3"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2637,32 +2732,36 @@
         <v>24</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20"/>
-      <c r="G20" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H20" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I20"/>
       <c r="J20" s="3"/>
       <c r="K20" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L20"/>
       <c r="M20" s="3"/>
       <c r="N20" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O20"/>
       <c r="P20" s="3"/>
       <c r="Q20" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="R20"/>
       <c r="S20" s="3"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2676,32 +2775,36 @@
         <v>24</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21"/>
-      <c r="G21" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H21" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21"/>
       <c r="J21" s="3"/>
       <c r="K21" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21"/>
       <c r="M21" s="3"/>
       <c r="N21" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O21"/>
       <c r="P21" s="3"/>
       <c r="Q21" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="R21"/>
       <c r="S21" s="3"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2709,38 +2812,42 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+        <v>67</v>
+      </c>
+      <c r="F22" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H22" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O22" s="3"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>34</v>
       </c>
@@ -2754,7 +2861,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3">
         <f>COUNTIF(G3:G22,"Y")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="3"/>
@@ -2781,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2795,7 +2902,7 @@
       <c r="F24" s="5"/>
       <c r="G24" s="6">
         <f>COUNTIF(G3:G22,"N")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
